--- a/Data/4_EI_WasteMgtEnergyIntensity_V1.0.xlsx
+++ b/Data/4_EI_WasteMgtEnergyIntensity_V1.0.xlsx
@@ -95,9 +95,6 @@
     <t># Two types are supported: list and table</t>
   </si>
   <si>
-    <t>SSP_Regions_32</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>age-cohort of installation</t>
   </si>
   <si>
-    <t>SSP regions</t>
-  </si>
-  <si>
     <t>Energy_Carriers_m6</t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>Al old cast</t>
+  </si>
+  <si>
+    <t>SSP_Regions_1</t>
+  </si>
+  <si>
+    <t>wOrld</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -672,10 +672,10 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.109375" customWidth="1"/>
@@ -690,13 +690,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -719,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
@@ -734,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
@@ -749,43 +749,43 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
@@ -809,13 +809,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -884,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
@@ -899,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>24</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -920,7 +920,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -929,7 +929,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -938,7 +938,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -959,10 +959,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="19">
         <v>10</v>
@@ -977,16 +977,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>24</v>
@@ -998,16 +998,16 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>24</v>
@@ -1015,22 +1015,22 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>24</v>
@@ -1038,22 +1038,22 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="C25" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>24</v>
@@ -1061,22 +1061,22 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>24</v>
@@ -1084,7 +1084,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -1205,10 +1205,10 @@
   <dimension ref="A1:N412"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.21875" customWidth="1"/>
@@ -1222,82 +1222,82 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>2010</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="9">
         <v>0.22680000000000003</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>2010</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" s="9">
         <v>0.22680000000000003</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1305,28 +1305,28 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4">
         <v>2010</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="9">
         <v>0.66909750000000001</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1335,28 +1335,28 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>2010</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9">
         <v>0.66909750000000001</v>
       </c>
       <c r="F5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1365,28 +1365,28 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>2010</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1395,28 +1395,28 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>2010</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7">
         <v>7.92E-3</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1424,28 +1424,28 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>2010</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8">
         <v>0.1</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1453,84 +1453,84 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>2010</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>1.8780000000000001</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>2010</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="9">
         <v>0.22680000000000003</v>
       </c>
       <c r="F10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>2010</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="9">
         <v>0.66909750000000001</v>
       </c>
       <c r="F11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>

--- a/Data/4_EI_WasteMgtEnergyIntensity_V1.0.xlsx
+++ b/Data/4_EI_WasteMgtEnergyIntensity_V1.0.xlsx
@@ -206,9 +206,6 @@
     <t>energy carriers</t>
   </si>
   <si>
-    <t>RECC_Classifications_Master_V1.0</t>
-  </si>
-  <si>
     <t>Manufacturing_i3</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>wOrld</t>
+  </si>
+  <si>
+    <t>RECC_Classifications_Master_V2.0</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
@@ -734,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
@@ -824,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -899,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>24</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>51</v>
@@ -1067,10 +1067,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>53</v>
@@ -1222,7 +1222,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>61</v>
@@ -1231,7 +1231,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>54</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>55</v>
@@ -1257,26 +1257,26 @@
         <v>2010</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="9">
         <v>0.22680000000000003</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>55</v>
@@ -1285,19 +1285,19 @@
         <v>2010</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="9">
         <v>0.22680000000000003</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>56</v>
@@ -1314,19 +1314,19 @@
         <v>2010</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9">
         <v>0.66909750000000001</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>56</v>
@@ -1344,19 +1344,19 @@
         <v>2010</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="9">
         <v>0.66909750000000001</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>55</v>
@@ -1374,19 +1374,19 @@
         <v>2010</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>55</v>
@@ -1404,19 +1404,19 @@
         <v>2010</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7">
         <v>7.92E-3</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1424,28 +1424,28 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>2010</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>0.1</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1453,35 +1453,35 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>2010</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>1.8780000000000001</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>55</v>
@@ -1490,26 +1490,26 @@
         <v>2010</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="9">
         <v>0.22680000000000003</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>56</v>
@@ -1518,19 +1518,19 @@
         <v>2010</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="9">
         <v>0.66909750000000001</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
